--- a/workingsheet.xlsx
+++ b/workingsheet.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="task" sheetId="2" r:id="rId2"/>
+    <sheet name="taskHistory" sheetId="6" r:id="rId3"/>
+    <sheet name="chat" sheetId="4" r:id="rId4"/>
+    <sheet name="charHistory" sheetId="3" r:id="rId5"/>
+    <sheet name="file" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AutoIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WorkID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,18 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책임자와 나만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단순채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,127 +165,337 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>채팅방 생성시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일업로드ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진척도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(50)</t>
+  </si>
+  <si>
+    <t>char(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(260)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto
+primary
+not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto
+pri
+not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title]B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[worker]user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[priority]urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[due]180506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[status]message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatHistoryID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>전송시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채팅방 생성시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련 업무ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일처리ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일업로드ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일확장자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동작 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날자갱신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가된접속자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히스토리ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동작타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진척도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도</t>
+    <t>sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련Task 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[msg]chat message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[system]message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[add]user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[remove]user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[upfile]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[downfile]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tasks]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,8 +542,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -661,21 +861,51 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -686,144 +916,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="2" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="49.5">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -834,74 +1205,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>56</v>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -912,41 +1350,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -956,6 +1441,166 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="3" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.5">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -972,148 +1617,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="10" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
